--- a/Keyword Searches/ABM & GW/Cleaning Files/Spelling_Check_DE.xlsx
+++ b/Keyword Searches/ABM & GW/Cleaning Files/Spelling_Check_DE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,19 +379,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4D CALCULATION</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>ABMS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -401,7 +397,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACID MINE DRAINAGE</t>
+          <t>ACTION TACTICS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -411,7 +407,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADAPTIVE MANAGEMENT</t>
+          <t>AD-HOC NETWORKS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,47 +417,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGENT BASED MODEL</t>
+          <t>ADAPTIVE TECHNIQUES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGENT BASED MODELING</t>
+          <t>AGENT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AGENT MODEL</t>
+          <t>AGENT BASED MODELING</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODEL</t>
+          <t>AGENT BASED MODELING AND SIMULATION</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODEL (ABM)</t>
+          <t>AGENT BASED MODELLING</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -471,97 +467,97 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODELING</t>
+          <t>AGENT BASED SIMULATION</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODELING AND SIMULATION(ABMS)</t>
+          <t>AGENT-BASED</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODELLING</t>
+          <t>AGENT-BASED MODEL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AGENT-BASED MODELS</t>
+          <t>AGENT-BASED MODELING</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>AGENT-BASED MODELING (ABM)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ALLUVIAL PLAIN</t>
+          <t>AGENT-BASED MODELING AND SIMULATION</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ALTERATION. URL</t>
+          <t>AGENT-BASED MODELLING</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANY LOGIC</t>
+          <t>AGENT-BASED MODELS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AQUATIC ANIMAL</t>
+          <t>AGENT-BASED SIMULATION</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AQUIFER PLANNING</t>
+          <t>AIR COMBAT</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -571,7 +567,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AQUIFER THERMAL ENERGY STORAGE (ATES)</t>
+          <t>AIR DEFENSE MISSILE SYSTEMS</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -581,7 +577,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ATES PLANNING</t>
+          <t>AIRBORNE LASER</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -591,17 +587,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ATOLLGAME</t>
+          <t>ANALYSIS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AND SIMULATION</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -611,7 +607,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAYESIAN BELIEF NETWORKS</t>
+          <t>ANTIBIOTIC RESISTANCE</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -621,7 +617,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAYESIAN COGNITIVE MAPPING</t>
+          <t>ANTIMALARIAL</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -631,7 +627,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BEHAVIORAL CONSTRAINTS</t>
+          <t>ANTS BEHAVIOR</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -641,7 +637,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BEHAVIORAL RULES</t>
+          <t>ANYLOGIC SOFTWARE</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -651,7 +647,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BEHAVIORAL UNCERTAINTY</t>
+          <t>ANYLOGIC(SOFTWARE)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -661,17 +657,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENTONITE BUFFER</t>
+          <t>ARMED-HELICOPTER</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BENTONITES</t>
+          <t>ARTIFICIAL</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -681,7 +677,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLUE WATER</t>
+          <t>ARTIFICIAL INTELLIGENCE COMPLEX SYSTEMS</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -691,7 +687,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BOOSTED REGRESSION TREES</t>
+          <t>ARTIFICIAL POTENTIAL FIELD</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -701,7 +697,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BOUNDED RATIONALITY</t>
+          <t>ATTACK</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -711,7 +707,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CADMIUM</t>
+          <t>AUTOMATA</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -721,7 +717,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CARBON NANOTUBES</t>
+          <t>AUTONOMOUS CREWS</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -731,7 +727,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CEC</t>
+          <t>AUTONOMY</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -741,7 +737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMICAL REACTION</t>
+          <t>AVAILABILITY</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -751,27 +747,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE</t>
+          <t>BATTLE MODELING</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CLIMATE IMPACTS ON GROUNDWATER</t>
+          <t>BEHAVIOR</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>COAL MINE WATER HAZARDS</t>
+          <t>BEHAVIORAL OPERATIONS</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -781,7 +777,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>COLLABORATION</t>
+          <t>BEVERAGE TAX</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -791,17 +787,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COLLABORATIVE MODELING</t>
+          <t>BIOMETRIC</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>COMMERCIAL WATER CONSUMPTION</t>
+          <t>BOOTSTRAPPING</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -811,7 +807,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>COMPANION MODELING</t>
+          <t>BORDERS</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -821,7 +817,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>COMPLEX ADAPTIVE SYSTEM</t>
+          <t>BUSINESS PROCESS</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -831,7 +827,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>COMPLEX FORMATION</t>
+          <t>CAPABILITY</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -841,7 +837,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COMPLEX SYSTEM</t>
+          <t>CAS</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -851,17 +847,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COMPLEXITY</t>
+          <t>CASE STUDY</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>COMPLIANCE</t>
+          <t>CASUALTY GENERATION</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -871,7 +867,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COMPUTATIONAL SOCIAL DYNAMICS</t>
+          <t>CASUALTY PREDICTION</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -881,17 +877,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CONDITIONAL VALUE AT RISK</t>
+          <t>CELLULAR AUTOMATA</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CONFLICT MITIGATION</t>
+          <t>CLIQUES</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -901,7 +897,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CONTAMINATION</t>
+          <t>CLOUD WAR</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -911,7 +907,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CORAL ISLANDS</t>
+          <t>COGNITION</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -921,7 +917,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COUPLED HUMAN AND NATURAL SYSTEMS</t>
+          <t>COLLECTIVE COGNITION</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -931,17 +927,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>COUPLED NATURAL-HUMAN SYSTEM</t>
+          <t>COMBAT</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>COVALENTLY FUNCTIONALIZATION</t>
+          <t>COMBAT AGENT</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -951,7 +947,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CU-TRIEN5 X CALCITE</t>
+          <t>COMBAT COMMAND</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -961,27 +957,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CU/NI</t>
+          <t>COMBAT EFFECTIVENESS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CU/ZN</t>
+          <t>COMBAT MODELING</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CULTIVATION PATTERN CHANGE</t>
+          <t>COMBAT MODELS</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -991,7 +987,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CULTURAL VALUES</t>
+          <t>COMBAT SEARCH AND RESCUE</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1001,27 +997,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CYSTEINE-FUNCTIONALIZED SWCNT</t>
+          <t>COMBAT SIMULATION</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DANUBE</t>
+          <t>COMMAND AND CONTROL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DECISION SUPPORT SYSTEM</t>
+          <t>COMMAND AND CONTROL (C2)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1031,7 +1027,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DECISION SUPPORT SYSTEMS</t>
+          <t>COMPLEX ADAPTIVE SYSTEM</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1041,17 +1037,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DECISION-SUPPORT SYSTEM</t>
+          <t>COMPLEX ADAPTIVE SYSTEMS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DELIBERATIVE TOOLS</t>
+          <t>COMPLEX COMBAT SYSTEM</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1061,7 +1057,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DEMAND MANAGEMENT</t>
+          <t>COMPLEXITY</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1071,7 +1067,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DIALOGUE</t>
+          <t>COMPONENT-BASED MODELING</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1081,7 +1077,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DIFFUSION-LIMITED PROCESS</t>
+          <t>COMPOSEABILITY</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1091,7 +1087,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DIRECTED INFORMATION GRAPH</t>
+          <t>COMPUTER GENERATED FORCE</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1101,7 +1097,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EARTH</t>
+          <t>COMPUTER-SUPPORTED COLLABORATIVE LEARNING</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1111,7 +1107,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ECO-HYDROLOGY</t>
+          <t>CONFLICT RESOLUTION</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1121,7 +1117,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ECOLOGICAL IMPACT ASSESSMENT</t>
+          <t>CONTEXT-AWARE COMPUTING</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1131,7 +1127,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ECOLOGICAL RISK</t>
+          <t>COOPERATIVE ENGAGEMENT CAPABILITY</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1141,7 +1137,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECOLOGICAL TYPE SPECIES</t>
+          <t>COORDINATED SIMULATION</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1151,7 +1147,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ECOSYSTEM</t>
+          <t>CRITICAL INFRASTRUCTURES</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1161,7 +1157,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECOSYSTEM RESTORATION</t>
+          <t>CYBER SECURITY</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1171,17 +1167,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EFFICIENCY</t>
+          <t>CYBERNETICS</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ELECTROCHEMICAL SENSOR</t>
+          <t>DATA FARMING</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1191,7 +1187,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENFORCEMENT</t>
+          <t>DATA FUSION</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1201,7 +1197,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENTRENCHED AGENDAS</t>
+          <t>DECISION SUPERIORITY</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1211,7 +1207,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL EXTERNALITIES</t>
+          <t>DECISION SUPPORT</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1221,7 +1217,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL PLANNING</t>
+          <t>DECISION SUPPORT SYSTEM</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1231,7 +1227,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EQUITY</t>
+          <t>DECISION-MAKING</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1241,17 +1237,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ETHANOLIC AMMONIUM CHLORIDE SOLUTION</t>
+          <t>DEFENCE</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EVOLUTION MODEL</t>
+          <t>DEFENCE MODELLING AND SIMULATION</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1261,7 +1257,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EXCHANGEABLE CATION POPULATION</t>
+          <t>DEFENSE MANDS(MODELING AND SIMULATION)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1271,7 +1267,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EXCHANGEABLE CATIONS</t>
+          <t>DENGUE</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1281,7 +1277,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FARMER HOUSEHOLDS</t>
+          <t>DENGUE SIMULATION</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1291,7 +1287,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FLUVIAL</t>
+          <t>DES</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1301,7 +1297,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FLUVIAL EVOLUTION</t>
+          <t>DESIGN</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1311,7 +1307,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FOREST ECOLOGY</t>
+          <t>DESIGN OF EXPERIMENTS</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1321,7 +1317,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FRESHWATER RESERVES</t>
+          <t>DIFFERENTIAL EQUATIONS</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1331,7 +1327,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FRESHWATER RESOURCE</t>
+          <t>DISCRETE</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1341,7 +1337,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FRESHWATER SUSTAINABILITY</t>
+          <t>DISCRETE EVENT SIMULATION</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1351,17 +1347,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FUZZY COGNITIVE MAPPING</t>
+          <t>DISCRETE SIMULATION</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FUZZY INFERENCE SYSTEM</t>
+          <t>DISTANCE LEARNING</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1371,7 +1367,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GAME THEORY</t>
+          <t>DRY-LAND SALINITY (NO IRRIGATION)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1381,7 +1377,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GLOBAL SENSITIVITY ANALYSIS</t>
+          <t>DSR</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1391,7 +1387,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GREEN WATER FLOW</t>
+          <t>DYNAMIC</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1401,7 +1397,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GREEN WATER STORAGE</t>
+          <t>E2BIO</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1411,7 +1407,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GROUND WATER RECOVERY</t>
+          <t>EDUCATION AND HEALTH</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1421,17 +1417,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GROUNDWATER</t>
+          <t>EENSTEIN</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GROUNDWATER INTERACTION</t>
+          <t>EFFECTIVENESS</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1441,17 +1437,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GROUNDWATER MANAGEMENT</t>
+          <t>ELDANA SACCHARINA WALKER</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GROUNDWATER MARKETS</t>
+          <t>EMERGENCE COMPLEX ADAPTIVE</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1461,7 +1457,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GROUNDWATER MODEL</t>
+          <t>EMERGENT</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1471,17 +1467,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GROUNDWATER MODELING</t>
+          <t>EMERGENT BEHAVIOR</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GROUNDWATER MODELLING</t>
+          <t>EMERGENT BEHAVIOUR</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1491,7 +1487,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GROUNDWATER PROTECTION POLICY</t>
+          <t>ENGAGEMENT</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1501,7 +1497,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GULLY</t>
+          <t>ENTITY</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1511,7 +1507,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HADOOP</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1521,7 +1517,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HEIHE RIVER BASIN</t>
+          <t>EVALUATION</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1531,17 +1527,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HETEROGENEITY</t>
+          <t>EVENT SIMULATION</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HIGH PLAINS AQUIFER</t>
+          <t>EVENT SYNTAX</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1551,7 +1547,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HUMAN BEHAVIOR</t>
+          <t>EXPERIMENTAL</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1561,17 +1557,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HYBRID MODELING</t>
+          <t>EXPERIMENTATION</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HYDROECONOMIC MODELS</t>
+          <t>FACTORIAL EXPERIMENTS</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1581,17 +1577,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HYDROGEOLOGY</t>
+          <t>FACTORS</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HYDROLOGICAL HOTSPOT</t>
+          <t>FAKE NEWS</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1601,7 +1597,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HYDROLOGY</t>
+          <t>FALSIFIED</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1611,7 +1607,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IN-SITU SCALE</t>
+          <t>FIGHTER COMBAT-TACTICAL AWARENESS CAPABILITY</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1621,17 +1617,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>INDIVIDUAL-BASED MODEL</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>INSECTICIDE</t>
+          <t>FINITE-STATE MACHINE</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1641,7 +1637,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>INTEGRATED ASSESSMENT</t>
+          <t>FORMICIDAE</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1651,17 +1647,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>INTEGRATED MODELLING</t>
+          <t>FRACTALS</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>INTEGRATED URBAN WATER MANAGEMENT</t>
+          <t>GAME THEORY</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1671,17 +1667,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>INTEGRATED WATER RESOURCES MANAGEMENT</t>
+          <t>GENETIC ALGORITHMS</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>INTERACTION</t>
+          <t>GILLESPIE ALGORITHM</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1691,7 +1687,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>INTERACTION RADIUS</t>
+          <t>GROUP FIGHTING</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1701,7 +1697,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>INTERMITTENT SUPPLY</t>
+          <t>H5N1</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1711,17 +1707,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IRRIGATION</t>
+          <t>HEALTH DISPARITIES</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LAGRANGIAN FRAMEWORK</t>
+          <t>HEALTH POLICY</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1731,7 +1727,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LAND MARKET</t>
+          <t>HIGH ENERGY LASER</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1741,7 +1737,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LAND USE</t>
+          <t>HIGH LEVEL ARCHITECTURE (HLA)</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1751,7 +1747,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LAND USE CHANGE</t>
+          <t>HLA</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1761,7 +1757,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LAND USE PLANNING</t>
+          <t>HOUSING</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1771,17 +1767,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LAND-USE CHANGE</t>
+          <t>HOUSING FINANCE SYSTEMS</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LARS-WG</t>
+          <t>HOUSING MARKET ANALYSIS</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1791,17 +1787,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LEARNING</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MANCHA OCCIDENTAL AQUIFER</t>
+          <t>HUMAN FACTORS</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1811,7 +1807,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MANGROVE ECOTONE</t>
+          <t>HUMAN-AIRCRAFT COMBINATION</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1821,7 +1817,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>IACM</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1831,7 +1827,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MEANDER</t>
+          <t>INFANTRY COMPANY</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1841,7 +1837,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MIKE SHE</t>
+          <t>INFECTIOUS DISEASES</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1851,7 +1847,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MINE WATER INRUSH</t>
+          <t>INFLUENZA</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1861,7 +1857,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MINTEQ SIMULATION</t>
+          <t>INFORMATION AGE COMBAT MODEL</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1871,27 +1867,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MODELLING</t>
+          <t>INFORMATION AGE WAR</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MODFLOW</t>
+          <t>INFORMATION DOMAIN</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MODULAR THREE-DIMENSIONAL FINITE-DIFFERENCE GROUNDWATER FLOW MODEL (MODFLOW)</t>
+          <t>INFORMATION OVERLOAD</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1901,7 +1897,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MONITORING</t>
+          <t>INFORMATION SUPERIORITY</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1911,7 +1907,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MOUNTAIN HYDROLOGY</t>
+          <t>INFORMATION SYSTEM</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1921,7 +1917,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MULTI-AGENT</t>
+          <t>INFORMATION VISUALIZATION</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1931,7 +1927,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MULTI-AGENT OF RIVER BASIN</t>
+          <t>INNOVATION</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -1941,27 +1937,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MULTI-AGENT SYSTEM</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MULTI-AGENT SYSTEMS</t>
+          <t>INSURGENT BEHAVIORS</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MULTI-AGENTS</t>
+          <t>INTANGIBLES</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -1971,7 +1967,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MULTI-STEP REACTIONS</t>
+          <t>INTELLIGENCE</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -1981,7 +1977,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MULTI-WATER RESOURCES</t>
+          <t>INTERDEPENDENT SECURITY</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -1991,7 +1987,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MULTIAGENT</t>
+          <t>INTEROPERABILITY</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2001,7 +1997,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MULTIAGENT SYSTEM</t>
+          <t>JOINT BATTLESPACE INFOSPHERE</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2011,7 +2007,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MULTIAGENT SYSTEMS</t>
+          <t>KOSOVO WAR</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2021,7 +2017,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NASH BARGAINING MODEL</t>
+          <t>LANCHESTER</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2031,7 +2027,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NATURAL-HUMAN SYSTEMS</t>
+          <t>LAND-COMBAT MODEL WITH COMMAND AND CONTROL</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2041,17 +2037,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NETLOGO</t>
+          <t>LETHALITY</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NON-DOMINATED SORTING GENETIC ALGORITHM</t>
+          <t>LOGISTICS MODELING</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2061,7 +2057,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NORTH CHINA PLAIN (NCP)</t>
+          <t>MANDS(MODELING AND SIMULATION)</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2071,7 +2067,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NSGA-II MULTI-OBJECTIVE OPTIMIZATION MODEL</t>
+          <t>MARKOV MODELS</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2081,7 +2077,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>OPTIMAL CONTROL</t>
+          <t>MAS</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2091,7 +2087,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>OPTIMAL USE OF SUBSURFACE SPACE</t>
+          <t>MATHEMATICAL MODELS</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2101,27 +2097,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OPTIMIZATION</t>
+          <t>MESH-NETWORKS</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>OPTIMIZATION-SIMULATION METHOD</t>
+          <t>MILITARY</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PACIFIC</t>
+          <t>MILITARY AIRCRAFT MAINTENANCE</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2131,7 +2127,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PADDY FIELD</t>
+          <t>MILITARY INFORMATION SYSTEMS</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2141,27 +2137,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PAKISTAN</t>
+          <t>MILITARY OPERATIONS RESEARCH</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PARALLEL EMERGENCY MANAGEMENT</t>
+          <t>MISSION EFFECTIVENESS</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PARALLEL SYSTEM</t>
+          <t>MISSION EFFECTIVENESS EVALUATION</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2171,7 +2167,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PARTICIPATION</t>
+          <t>MIXED REALITY</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2181,47 +2177,47 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PARTICIPATORY GIS</t>
+          <t>MIXED-METHOD STUDY</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PARTICIPATORY MODELING</t>
+          <t>MODEL</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PARTICIPATORY MODELLING</t>
+          <t>MODEL VALIDATION</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PH ADJUSTMENT</t>
+          <t>MODELING</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PLAN MAKING</t>
+          <t>MODELING (ABM)</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2231,7 +2227,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>POLICY OPTION ANALYSIS</t>
+          <t>MORALE</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2241,17 +2237,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>POLLUTION</t>
+          <t>MULTI-AGENT</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>POLYNOMIAL CHAOS EXPANSION</t>
+          <t>MULTI-AGENT SYSTEM</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2261,7 +2257,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>POVERTY ALLEVIATION</t>
+          <t>MULTI-METHOD SIMULATION</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2271,7 +2267,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PROBABILISTIC GRAPHICAL MODEL</t>
+          <t>MULTIAGENT SYSTEMS</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2281,7 +2277,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PROCESS</t>
+          <t>MUTUAL ASSESSMENT</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2291,17 +2287,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PUBLIC PARTICIPATION</t>
+          <t>NAVAL WARSHIP</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>QUOTA</t>
+          <t>NCO</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2311,7 +2307,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>REACTIVE TRANSPORT MODELLING</t>
+          <t>NETWORK CENTRIC OPERATIONS</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2321,7 +2317,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>REGULATION</t>
+          <t>NETWORK CENTRIC WARFARE</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2331,7 +2327,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>REPUBLICAN RIVER</t>
+          <t>NETWORK ENABLED CAPABILITIES/OPERATIONS</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2341,17 +2337,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RHONE RIVER</t>
+          <t>NETWORK-ENABLED CAPABILITIES/OPERATIONS</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RIPLEY'S K ALMASS</t>
+          <t>NETWORKING</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2361,17 +2357,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RISK MANAGEMENT</t>
+          <t>NETWORKS</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ROLE-PLAYING GAME</t>
+          <t>NEURAL NETWORKS</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2381,7 +2377,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SEA LEVEL RISE</t>
+          <t>NEUROPHYSIOLOGICAL</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2391,7 +2387,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SELECTIVE PRECIPITATION</t>
+          <t>NON-PARAMETRIC</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2401,7 +2397,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SELECTIVE RECOVERY</t>
+          <t>NONLINEAR EFFECTS</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2411,7 +2407,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SIMULATION</t>
+          <t>NOSOCOMIAL INFECTION</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2421,17 +2417,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SIMULATION-OPTIMIZATION</t>
+          <t>OBSERVATION AGENT</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SLOPE</t>
+          <t>ONLINE SOCIAL</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2441,7 +2437,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>OOAGENT</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2451,7 +2447,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SOCIAL CHOICES AND BARGAINING METHODS</t>
+          <t>OODA</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2461,7 +2457,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SOCIAL LEARNING</t>
+          <t>OPERATION SUPERIORITY</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2471,7 +2467,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SOCIAL NORMS</t>
+          <t>OPERATIONS</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2481,37 +2477,37 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SOCIAL SIMULATION</t>
+          <t>OPERATIONS ANALYSIS</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SOCIAL-ECOLOGICAL SYSTEM</t>
+          <t>OPERATIONS RESEARCH</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SOCIAL-ECOLOGICAL SYSTEMS</t>
+          <t>OPINION FORMING</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SOCIO-HYDROLOGICAL MODEL</t>
+          <t>OPTIMAL COMBAT ENVIRONMENT</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2521,7 +2517,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SOCIO-HYDROLOGY</t>
+          <t>ORGANIZATIONAL BEHAVIOR (OB)</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2531,7 +2527,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SOCIO-TECHNICAL ANALYSIS</t>
+          <t>ORIENTED DESIGN</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2541,7 +2537,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SOCIOHYDROLOGY</t>
+          <t>PERSONALITY MODELS</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2551,7 +2547,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SOIL AND WATER ASSESSMENT TOOL</t>
+          <t>PEST CONTROL</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2561,7 +2557,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SONORAN DESERT</t>
+          <t>PILOT BEHAVIOR REPRESENTATION</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2571,7 +2567,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SSUSTAINABLE DEVELOPMENT</t>
+          <t>PLATOON</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2581,7 +2577,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>STAGED PROCESS</t>
+          <t>POLICY ANALYSIS</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2591,27 +2587,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>STAKEHOLDER COLLABORATION</t>
+          <t>PRACTICE OF OR</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>STAKEHOLDER INVOLVEMENT</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SURFACE</t>
+          <t>PRODUCTION MANAGEMENT</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2621,7 +2617,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SUSTAINABILITY</t>
+          <t>Q ALGORITHM</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2631,7 +2627,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SUSTAINABILITY INDEX</t>
+          <t>Q-LEARNING</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2641,7 +2637,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SUSTAINABLE DEVELOPMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2651,7 +2647,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SUSTAINABLE GROUNDWATER MANAGEMENT</t>
+          <t>REASONING</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2661,7 +2657,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SUSTAINABLE MANAGEMENT</t>
+          <t>RELATIVE AGREEMENT RULES</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2671,7 +2667,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SUSTAINABLE WATER SUPPLY</t>
+          <t>REQUIREMENTS ENGINEERING</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2681,17 +2677,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SYSTEM DYNAMICS</t>
+          <t>RESEARCH FUNDING</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SYSTEMS DYNAMIC</t>
+          <t>REUSABILITY</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2701,7 +2697,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>TANKER WATER</t>
+          <t>SCALABILITY</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2711,7 +2707,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TARAWA</t>
+          <t>SELF-INITIATED BEHAVIOR</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2721,7 +2717,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TAX</t>
+          <t>SELF-MANAGED CREWS</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2731,7 +2727,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TEMPERATURE-DEPENDANT DIFFUSION</t>
+          <t>SELF-ORGANIZATION</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2741,27 +2737,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TRANSPORT</t>
+          <t>SENSOR</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>UNCERTAINTY</t>
+          <t>SIMULATION</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>UPPER GUADIANA</t>
+          <t>SIMULATION FRAMEWORK</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2771,37 +2767,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>URBAN FORM</t>
+          <t>SIMULATION MODELING</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SIMULATIONS</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>VULNERABILITY</t>
+          <t>SITUATION AWARENESS AND SITUATION UNDERSTANDING</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>WATER</t>
+          <t>SOCIAL</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2811,7 +2807,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>WATER ALLOCATION</t>
+          <t>SOCIAL DETERMINANTS OF HEALTH</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2821,17 +2817,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>WATER DEMAND</t>
+          <t>SOCIAL NETWORK</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>WATER MANAGEMENT</t>
+          <t>SOCIAL SIMULATION</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2841,7 +2837,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>WATER MANAGEMENT STRATEGIES</t>
+          <t>SOLDIER MORALE</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2851,7 +2847,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>WATER MARKET</t>
+          <t>SOS COMBAT SIMULATION</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2861,7 +2857,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>WATER PLANNING</t>
+          <t>SPATIAL REASONING</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2871,7 +2867,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>WATER QUANTITY AND QUALITY</t>
+          <t>SPATIALLY EXPLICIT MODEL</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2881,7 +2877,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>WATER RESERVES</t>
+          <t>SUBSTANDARD</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2891,67 +2887,67 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>WATER RESOURCES ALLOCATION</t>
+          <t>SURVIVABILITY</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>WATER RESOURCES SYSTEMS</t>
+          <t>SWARM</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>WATER SCARCITY</t>
+          <t>SYSTEM DYNAMICS</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>WATER SECURITY</t>
+          <t>SYSTEM OF SYSTEMS</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>WATER SERVICES</t>
+          <t>SYSTEM-OF-SYSTEMS</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>WATER SHORTAGE</t>
+          <t>SYSTEMS</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>WATER SUPPLY MODEL</t>
+          <t>TACTICAL</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -2961,7 +2957,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>WATER TABLE</t>
+          <t>TACTICS</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -2971,7 +2967,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>WATER TABLE OVEREXPLOITATION</t>
+          <t>TANK AGENT</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -2981,7 +2977,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>WATER WITHDRAWAL</t>
+          <t>TARGET ASSIGNMENT</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -2991,7 +2987,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>WATERSHED CLASSIFICATION</t>
+          <t>TECHNOLOGY</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3001,20 +2997,220 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>WORLD VALUES SURVEY</t>
+          <t>TECHNOLOGY DIFFUSION</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ZONING</t>
+          <t>TEMPORAL</t>
         </is>
       </c>
       <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>TERRITORIALITY</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>TRAFFIC CONTROL POINTS</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>TRAFFIC FLOW STRATEGIES</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>TRAINING</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>UAV SWARM</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>UGANDA</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>UNCERTAINTY</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>UNMANNED COMBAT AERIAL VEHICLE</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>USER MODELING</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>VALIDATION</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>VIRTUAL BATTLEFIELD</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>WARFARE SIMULATION</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>WARGAMING</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>WATER CONSERVATION</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>WEAPON SYSTEM</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>WEAPON SYSTEMS</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>WEAPONS SYSTEMS</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>WIRELESS NETWORKING</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
         <v>1</v>
       </c>
     </row>
